--- a/tracking_train_pose.xlsx
+++ b/tracking_train_pose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0C2006-A523-43B7-87FA-847DD1CD8C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93585D34-D58E-47EE-9F18-573FE6F14514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="1092" windowWidth="15768" windowHeight="10836" xr2:uid="{F2B50A9D-5D6C-4CD1-B716-A06BDCAFE207}"/>
+    <workbookView xWindow="6024" yWindow="588" windowWidth="15768" windowHeight="10836" xr2:uid="{F2B50A9D-5D6C-4CD1-B716-A06BDCAFE207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t>EPOCHS 32</t>
   </si>
@@ -84,9 +84,6 @@
     <t>epo 9</t>
   </si>
   <si>
-    <t>epo 7</t>
-  </si>
-  <si>
     <t>BS 64</t>
   </si>
   <si>
@@ -114,22 +111,79 @@
     <t>epo 10</t>
   </si>
   <si>
-    <t>epo 12</t>
-  </si>
-  <si>
-    <t>epo 16</t>
-  </si>
-  <si>
     <t>epo 19</t>
   </si>
   <si>
-    <t>epo 14</t>
-  </si>
-  <si>
-    <t>epo 21</t>
-  </si>
-  <si>
-    <t>epo 11</t>
+    <t>Time_train (sec)</t>
+  </si>
+  <si>
+    <t>Time_test (sec)</t>
+  </si>
+  <si>
+    <t>epo 6 - 11</t>
+  </si>
+  <si>
+    <t>epo 5 - 14</t>
+  </si>
+  <si>
+    <t>AVG = 6 , PATIENCE=4</t>
+  </si>
+  <si>
+    <t>epo 5 - 11</t>
+  </si>
+  <si>
+    <t>epo 7 - 8</t>
+  </si>
+  <si>
+    <t>epo 6 - 10</t>
+  </si>
+  <si>
+    <t>epo 6 - 9</t>
+  </si>
+  <si>
+    <t>epo 7 - 12</t>
+  </si>
+  <si>
+    <t>epo 6 - 12</t>
+  </si>
+  <si>
+    <t>epo 8 - 19</t>
+  </si>
+  <si>
+    <t>epo 8 - 15</t>
+  </si>
+  <si>
+    <t>epo 9 - 17</t>
+  </si>
+  <si>
+    <t>epo 7 - 10</t>
+  </si>
+  <si>
+    <t>epo 10 - 15</t>
+  </si>
+  <si>
+    <t>epo 6 - 17</t>
+  </si>
+  <si>
+    <t>epo 5 - 10</t>
+  </si>
+  <si>
+    <t>epo 5 - 12</t>
+  </si>
+  <si>
+    <t>epo 5 - 8</t>
+  </si>
+  <si>
+    <t>epo 6 - 16</t>
+  </si>
+  <si>
+    <t>epo 7 - 13</t>
+  </si>
+  <si>
+    <t>epo 6 - 14</t>
+  </si>
+  <si>
+    <t>epo 5 - 9</t>
   </si>
 </sst>
 </file>
@@ -139,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +217,16 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +248,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -323,6 +409,12 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,15 +454,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B70025D-0CBD-4163-9584-86C81CF52C37}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,102 +798,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="30" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
+      <c r="J12" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,31 +915,31 @@
         <v>4</v>
       </c>
       <c r="B13" s="9">
-        <v>99.9</v>
+        <v>99.891999999999996</v>
       </c>
       <c r="C13" s="9">
-        <v>99.9</v>
+        <v>99.909000000000006</v>
       </c>
       <c r="D13" s="9">
-        <v>99.9</v>
+        <v>99.924999999999997</v>
       </c>
       <c r="E13" s="10">
-        <v>99.95</v>
+        <v>99.909000000000006</v>
       </c>
       <c r="F13" s="10">
-        <v>99.850999999999999</v>
+        <v>99.917000000000002</v>
       </c>
       <c r="G13" s="10">
-        <v>99.9</v>
+        <v>99.884</v>
       </c>
       <c r="H13" s="11">
-        <v>99.9</v>
+        <v>99.917000000000002</v>
       </c>
       <c r="I13" s="11">
-        <v>99.9</v>
+        <v>99.891999999999996</v>
       </c>
       <c r="J13" s="11">
-        <v>99.95</v>
+        <v>99.924999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,31 +947,31 @@
         <v>5</v>
       </c>
       <c r="B14" s="9">
-        <v>100</v>
+        <v>99.846999999999994</v>
       </c>
       <c r="C14" s="9">
-        <v>99.897999999999996</v>
+        <v>99.885000000000005</v>
       </c>
       <c r="D14" s="9">
-        <v>100</v>
+        <v>99.932000000000002</v>
       </c>
       <c r="E14" s="10">
-        <v>99.896000000000001</v>
+        <v>99.917000000000002</v>
       </c>
       <c r="F14" s="10">
-        <v>99.896000000000001</v>
+        <v>99.882000000000005</v>
       </c>
       <c r="G14" s="10">
-        <v>99.903000000000006</v>
+        <v>99.831000000000003</v>
       </c>
       <c r="H14" s="11">
-        <v>99.896000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="I14" s="11">
-        <v>99.9</v>
+        <v>99.835999999999999</v>
       </c>
       <c r="J14" s="11">
-        <v>99.896000000000001</v>
+        <v>99.882999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,31 +979,31 @@
         <v>6</v>
       </c>
       <c r="B15" s="9">
-        <v>100</v>
+        <v>99.73</v>
       </c>
       <c r="C15" s="9">
-        <v>99.796999999999997</v>
+        <v>99.834999999999994</v>
       </c>
       <c r="D15" s="9">
-        <v>100</v>
+        <v>99.864000000000004</v>
       </c>
       <c r="E15" s="10">
-        <v>99.793000000000006</v>
+        <v>99.834999999999994</v>
       </c>
       <c r="F15" s="10">
-        <v>99.792000000000002</v>
+        <v>99.8</v>
       </c>
       <c r="G15" s="10">
-        <v>99.808000000000007</v>
+        <v>99.662999999999997</v>
       </c>
       <c r="H15" s="11">
-        <v>99.793000000000006</v>
+        <v>99.834000000000003</v>
       </c>
       <c r="I15" s="11">
-        <v>99.801000000000002</v>
+        <v>99.736999999999995</v>
       </c>
       <c r="J15" s="11">
-        <v>99.793000000000006</v>
+        <v>99.834999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -900,10 +1011,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="9">
-        <v>100</v>
+        <v>99.965999999999994</v>
       </c>
       <c r="C16" s="9">
-        <v>100</v>
+        <v>99.936000000000007</v>
       </c>
       <c r="D16" s="9">
         <v>100</v>
@@ -912,83 +1023,83 @@
         <v>100</v>
       </c>
       <c r="F16" s="10">
-        <v>100</v>
+        <v>99.963999999999999</v>
       </c>
       <c r="G16" s="10">
         <v>100</v>
       </c>
       <c r="H16" s="11">
-        <v>100</v>
+        <v>99.965000000000003</v>
       </c>
       <c r="I16" s="11">
-        <v>100</v>
+        <v>99.935000000000002</v>
       </c>
       <c r="J16" s="11">
-        <v>100</v>
+        <v>99.932000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B17" s="12">
-        <v>1.81</v>
+        <v>748.10500000000002</v>
       </c>
       <c r="C17" s="12">
-        <v>1.29</v>
+        <v>600.13699999999994</v>
       </c>
       <c r="D17" s="12">
-        <v>1.24</v>
+        <v>519.68100000000004</v>
       </c>
       <c r="E17" s="13">
-        <v>1.4</v>
+        <v>711.29200000000003</v>
       </c>
       <c r="F17" s="13">
-        <v>1.48</v>
+        <v>665.197</v>
       </c>
       <c r="G17" s="13">
-        <v>1.26</v>
+        <v>602.30999999999995</v>
       </c>
       <c r="H17" s="14">
-        <v>1.64</v>
+        <v>640.77599999999995</v>
       </c>
       <c r="I17" s="14">
-        <v>1.26</v>
+        <v>771.67499999999995</v>
       </c>
       <c r="J17" s="14">
-        <v>1.28</v>
+        <v>665.67399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>25.757999999999999</v>
       </c>
       <c r="C18" s="12">
-        <v>0.06</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="D18" s="12">
-        <v>0.06</v>
+        <v>17.385999999999999</v>
       </c>
       <c r="E18" s="13">
-        <v>0.06</v>
+        <v>21.963999999999999</v>
       </c>
       <c r="F18" s="13">
-        <v>0.06</v>
+        <v>22.318999999999999</v>
       </c>
       <c r="G18" s="13">
-        <v>0.06</v>
+        <v>17.088000000000001</v>
       </c>
       <c r="H18" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="I18" s="14">
-        <v>0.06</v>
+        <v>23.803000000000001</v>
       </c>
       <c r="J18" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>20.338000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -996,81 +1107,98 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="36"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,25 +1206,25 @@
         <v>4</v>
       </c>
       <c r="B28" s="9">
-        <v>99.9</v>
+        <v>99.81</v>
       </c>
       <c r="C28" s="9">
-        <v>99.9</v>
+        <v>99.768000000000001</v>
       </c>
       <c r="D28" s="9">
-        <v>100</v>
+        <v>99.768000000000001</v>
       </c>
       <c r="E28" s="10">
-        <v>99.95</v>
+        <v>99.825999999999993</v>
       </c>
       <c r="F28" s="10">
-        <v>99.95</v>
+        <v>99.867000000000004</v>
       </c>
       <c r="G28" s="10">
         <v>100</v>
       </c>
       <c r="H28" s="11">
-        <v>100</v>
+        <v>99.784999999999997</v>
       </c>
       <c r="I28" s="11">
         <v>100</v>
@@ -1110,25 +1238,25 @@
         <v>5</v>
       </c>
       <c r="B29" s="9">
-        <v>100</v>
+        <v>99.667000000000002</v>
       </c>
       <c r="C29" s="9">
-        <v>100</v>
+        <v>99.626999999999995</v>
       </c>
       <c r="D29" s="9">
-        <v>100</v>
+        <v>99.626999999999995</v>
       </c>
       <c r="E29" s="10">
-        <v>100</v>
+        <v>99.721000000000004</v>
       </c>
       <c r="F29" s="10">
-        <v>99.899000000000001</v>
+        <v>99.835999999999999</v>
       </c>
       <c r="G29" s="10">
         <v>100</v>
       </c>
       <c r="H29" s="11">
-        <v>100</v>
+        <v>99.661000000000001</v>
       </c>
       <c r="I29" s="11">
         <v>100</v>
@@ -1142,25 +1270,25 @@
         <v>6</v>
       </c>
       <c r="B30" s="9">
-        <v>100</v>
+        <v>99.335999999999999</v>
       </c>
       <c r="C30" s="9">
         <v>100</v>
       </c>
       <c r="D30" s="9">
-        <v>100</v>
+        <v>99.323999999999998</v>
       </c>
       <c r="E30" s="10">
-        <v>100</v>
+        <v>99.507999999999996</v>
       </c>
       <c r="F30" s="10">
-        <v>100</v>
+        <v>99.741</v>
       </c>
       <c r="G30" s="10">
         <v>100</v>
       </c>
       <c r="H30" s="11">
-        <v>100</v>
+        <v>99.391999999999996</v>
       </c>
       <c r="I30" s="11">
         <v>100</v>
@@ -1180,19 +1308,19 @@
         <v>100</v>
       </c>
       <c r="D31" s="9">
-        <v>100</v>
+        <v>99.933000000000007</v>
       </c>
       <c r="E31" s="10">
-        <v>100</v>
+        <v>99.935000000000002</v>
       </c>
       <c r="F31" s="10">
-        <v>99.798000000000002</v>
+        <v>99.932000000000002</v>
       </c>
       <c r="G31" s="10">
         <v>100</v>
       </c>
       <c r="H31" s="11">
-        <v>100</v>
+        <v>99.932000000000002</v>
       </c>
       <c r="I31" s="11">
         <v>100</v>
@@ -1206,25 +1334,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="12">
-        <v>4.25</v>
+        <v>3138.3440000000001</v>
       </c>
       <c r="C32" s="12">
         <v>4.74</v>
       </c>
       <c r="D32" s="12">
-        <v>2.98</v>
+        <v>3146.2359999999999</v>
       </c>
       <c r="E32" s="13">
-        <v>3.63</v>
+        <v>2947.625</v>
       </c>
       <c r="F32" s="13">
-        <v>3.61</v>
+        <v>3417.9479999999999</v>
       </c>
       <c r="G32" s="13">
         <v>2.89</v>
       </c>
       <c r="H32" s="14">
-        <v>5.43</v>
+        <v>3294.14</v>
       </c>
       <c r="I32" s="14">
         <v>4.07</v>
@@ -1238,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="B33" s="12">
-        <v>0.2</v>
+        <v>88.632999999999996</v>
       </c>
       <c r="C33" s="12">
         <v>0.21</v>
       </c>
       <c r="D33" s="12">
-        <v>0.23</v>
+        <v>90.924000000000007</v>
       </c>
       <c r="E33" s="13">
-        <v>0.2</v>
+        <v>82.099000000000004</v>
       </c>
       <c r="F33" s="13">
-        <v>0.18</v>
+        <v>82.394999999999996</v>
       </c>
       <c r="G33" s="13">
         <v>0.2</v>
       </c>
       <c r="H33" s="14">
-        <v>0.21</v>
+        <v>85.772000000000006</v>
       </c>
       <c r="I33" s="14">
         <v>0.19</v>
@@ -1270,63 +1398,77 @@
         <v>13</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="30" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="31" t="s">
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>20</v>
+      <c r="D42" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>2</v>
@@ -1335,16 +1477,16 @@
         <v>3</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1355,10 +1497,10 @@
         <v>99.850999999999999</v>
       </c>
       <c r="C43" s="9">
-        <v>99.9</v>
+        <v>98.588999999999999</v>
       </c>
       <c r="D43" s="9">
-        <v>99.653000000000006</v>
+        <v>98.951999999999998</v>
       </c>
       <c r="E43" s="10">
         <v>99.653000000000006</v>
@@ -1387,10 +1529,10 @@
         <v>100</v>
       </c>
       <c r="C44" s="9">
-        <v>100</v>
+        <v>98.747</v>
       </c>
       <c r="D44" s="9">
-        <v>99.897000000000006</v>
+        <v>98.798000000000002</v>
       </c>
       <c r="E44" s="10">
         <v>100</v>
@@ -1419,10 +1561,10 @@
         <v>100</v>
       </c>
       <c r="C45" s="9">
-        <v>100</v>
+        <v>98.022000000000006</v>
       </c>
       <c r="D45" s="9">
-        <v>99.795000000000002</v>
+        <v>98.29</v>
       </c>
       <c r="E45" s="10">
         <v>100</v>
@@ -1451,10 +1593,10 @@
         <v>100</v>
       </c>
       <c r="C46" s="9">
-        <v>100</v>
+        <v>99.492000000000004</v>
       </c>
       <c r="D46" s="9">
-        <v>100</v>
+        <v>99.334000000000003</v>
       </c>
       <c r="E46" s="10">
         <v>100</v>
@@ -1483,10 +1625,10 @@
         <v>2.52</v>
       </c>
       <c r="C47" s="12">
-        <v>2.09</v>
+        <v>5442.7190000000001</v>
       </c>
       <c r="D47" s="12">
-        <v>2.73</v>
+        <v>1308.8920000000001</v>
       </c>
       <c r="E47" s="13">
         <v>3.54</v>
@@ -1515,10 +1657,10 @@
         <v>0.03</v>
       </c>
       <c r="C48" s="12">
-        <v>0.03</v>
+        <v>14.484999999999999</v>
       </c>
       <c r="D48" s="12">
-        <v>0.03</v>
+        <v>13.458</v>
       </c>
       <c r="E48" s="13">
         <v>0.03</v>
@@ -1544,19 +1686,19 @@
         <v>13</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>18</v>
@@ -1568,57 +1710,71 @@
         <v>18</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24" t="s">
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="5" t="s">
+      <c r="G56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>20</v>
+      <c r="J56" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1626,31 +1782,31 @@
         <v>4</v>
       </c>
       <c r="B57" s="9">
-        <v>99.653000000000006</v>
+        <v>99.587000000000003</v>
       </c>
       <c r="C57" s="9">
-        <v>99.751999999999995</v>
+        <v>99.554000000000002</v>
       </c>
       <c r="D57" s="9">
-        <v>99.653000000000006</v>
+        <v>99.587000000000003</v>
       </c>
       <c r="E57" s="10">
-        <v>99.751999999999995</v>
+        <v>99.594999999999999</v>
       </c>
       <c r="F57" s="10">
-        <v>99.850999999999999</v>
+        <v>99.447000000000003</v>
       </c>
       <c r="G57" s="10">
-        <v>99.850999999999999</v>
+        <v>99.546000000000006</v>
       </c>
       <c r="H57" s="11">
-        <v>99.751999999999995</v>
+        <v>99.43</v>
       </c>
       <c r="I57" s="11">
-        <v>99.850999999999999</v>
+        <v>99.701999999999998</v>
       </c>
       <c r="J57" s="11">
-        <v>99.751999999999995</v>
+        <v>99.611999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -1658,31 +1814,31 @@
         <v>5</v>
       </c>
       <c r="B58" s="9">
-        <v>99.897000000000006</v>
+        <v>99.507000000000005</v>
       </c>
       <c r="C58" s="9">
-        <v>99.902000000000001</v>
+        <v>99.537000000000006</v>
       </c>
       <c r="D58" s="9">
-        <v>99.694999999999993</v>
+        <v>99.484999999999999</v>
       </c>
       <c r="E58" s="10">
-        <v>99.81</v>
+        <v>99.552000000000007</v>
       </c>
       <c r="F58" s="10">
-        <v>99.897000000000006</v>
+        <v>99.305000000000007</v>
       </c>
       <c r="G58" s="10">
-        <v>99.793999999999997</v>
+        <v>99.481999999999999</v>
       </c>
       <c r="H58" s="11">
-        <v>99.706000000000003</v>
+        <v>99.225999999999999</v>
       </c>
       <c r="I58" s="11">
-        <v>99.894000000000005</v>
+        <v>99.564999999999998</v>
       </c>
       <c r="J58" s="11">
-        <v>99.902000000000001</v>
+        <v>99.533000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -1690,31 +1846,31 @@
         <v>6</v>
       </c>
       <c r="B59" s="9">
-        <v>99.795000000000002</v>
+        <v>99.15</v>
       </c>
       <c r="C59" s="9">
-        <v>100</v>
+        <v>99.248000000000005</v>
       </c>
       <c r="D59" s="9">
-        <v>99.593999999999994</v>
+        <v>99.138999999999996</v>
       </c>
       <c r="E59" s="10">
-        <v>99.81</v>
+        <v>99.274000000000001</v>
       </c>
       <c r="F59" s="10">
-        <v>99.795000000000002</v>
+        <v>98.944999999999993</v>
       </c>
       <c r="G59" s="10">
-        <v>99.588999999999999</v>
+        <v>99.162000000000006</v>
       </c>
       <c r="H59" s="11">
-        <v>99.415000000000006</v>
+        <v>98.936000000000007</v>
       </c>
       <c r="I59" s="11">
-        <v>100</v>
+        <v>99.331999999999994</v>
       </c>
       <c r="J59" s="11">
-        <v>99.805000000000007</v>
+        <v>99.201999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -1722,31 +1878,31 @@
         <v>7</v>
       </c>
       <c r="B60" s="9">
-        <v>100</v>
+        <v>99.867999999999995</v>
       </c>
       <c r="C60" s="9">
-        <v>99.805000000000007</v>
+        <v>99.828999999999994</v>
       </c>
       <c r="D60" s="9">
-        <v>99.796000000000006</v>
+        <v>99.834000000000003</v>
       </c>
       <c r="E60" s="10">
-        <v>99.81</v>
+        <v>99.832999999999998</v>
       </c>
       <c r="F60" s="10">
-        <v>100</v>
+        <v>99.67</v>
       </c>
       <c r="G60" s="10">
-        <v>100</v>
+        <v>99.807000000000002</v>
       </c>
       <c r="H60" s="11">
-        <v>100</v>
+        <v>99.522000000000006</v>
       </c>
       <c r="I60" s="11">
-        <v>99.789000000000001</v>
+        <v>99.799000000000007</v>
       </c>
       <c r="J60" s="11">
-        <v>100</v>
+        <v>99.867000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -1754,31 +1910,31 @@
         <v>15</v>
       </c>
       <c r="B61" s="12">
-        <v>3.88</v>
+        <v>1436.8779999999999</v>
       </c>
       <c r="C61" s="12">
-        <v>3.06</v>
+        <v>2107.3710000000001</v>
       </c>
       <c r="D61" s="12">
-        <v>3.42</v>
+        <v>2099.377</v>
       </c>
       <c r="E61" s="13">
-        <v>3.6</v>
+        <v>1593.376</v>
       </c>
       <c r="F61" s="13">
-        <v>2.84</v>
+        <v>1314.558</v>
       </c>
       <c r="G61" s="13">
-        <v>2.96</v>
+        <v>1875.779</v>
       </c>
       <c r="H61" s="14">
-        <v>4.29</v>
+        <v>1355.239</v>
       </c>
       <c r="I61" s="14">
-        <v>6.61</v>
+        <v>1110.741</v>
       </c>
       <c r="J61" s="14">
-        <v>2.95</v>
+        <v>2050.819</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,31 +1942,31 @@
         <v>17</v>
       </c>
       <c r="B62" s="12">
-        <v>0.14000000000000001</v>
+        <v>44.609000000000002</v>
       </c>
       <c r="C62" s="12">
-        <v>0.13</v>
+        <v>48.646999999999998</v>
       </c>
       <c r="D62" s="12">
-        <v>0.14000000000000001</v>
+        <v>43.768000000000001</v>
       </c>
       <c r="E62" s="13">
-        <v>0.14000000000000001</v>
+        <v>44.5</v>
       </c>
       <c r="F62" s="13">
-        <v>0.12</v>
+        <v>43.058999999999997</v>
       </c>
       <c r="G62" s="13">
-        <v>0.14000000000000001</v>
+        <v>42.884</v>
       </c>
       <c r="H62" s="14">
-        <v>0.14000000000000001</v>
+        <v>41.276000000000003</v>
       </c>
       <c r="I62" s="14">
-        <v>0.12</v>
+        <v>49.734000000000002</v>
       </c>
       <c r="J62" s="14">
-        <v>0.14000000000000001</v>
+        <v>43.328000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -1818,35 +1974,38 @@
         <v>13</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A41:A42"/>
@@ -1855,6 +2014,7 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1870,6 +2030,9 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A54:J54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
